--- a/Software/file/通信协议0.3.xlsx
+++ b/Software/file/通信协议0.3.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="156">
   <si>
     <t>帧头</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,50 +117,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONMAND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>05</t>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONMAND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -175,15 +152,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PID4</t>
-  </si>
-  <si>
-    <t>PID5</t>
-  </si>
-  <si>
-    <t>PID6</t>
-  </si>
-  <si>
     <t>PID2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -261,15 +229,6 @@
   </si>
   <si>
     <t>ACK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint16 Votage*100
-uint16 Current*100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POWER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -353,18 +312,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int16 PID10_P
-int16 PID10_I
-int16 PID10_D
-int16 PID11_P
-int16 PID11_I
-int16 PID11_D
-int16 PID12_P
-int16 PID12_I
-int16 PID12_D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int16 PID1_P
 int16 PID1_I
 int16 PID1_D
@@ -377,36 +324,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int16 PID16_P
-int16 PID16_I
-int16 PID16_D
-int16 PID17_P
-int16 PID17_I
-int16 PID17_D
-int16 PID18_P
-int16 PID18_I
-int16 PID18_D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int16 PID13_P
-int16 PID13_I
-int16 PID13_D
-int16 PID14_P
-int16 PID14_I
-int16 PID14_D
-int16 PID15_P
-int16 PID15_I
-int16 PID15_D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>功能字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLY
-MODEL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -457,15 +375,6 @@
     <t>PID数据帧3</t>
   </si>
   <si>
-    <t>PID数据帧4</t>
-  </si>
-  <si>
-    <t>PID数据帧5</t>
-  </si>
-  <si>
-    <t>PID数据帧6</t>
-  </si>
-  <si>
     <t>uint8 CMD1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -478,18 +387,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int8 AUX1_LOW_MODEL
-int8 AUX1_MID_MODEL
-int8 AUX1_HIG_MODEL
-int8 AUX2_LOW_MODEL
-int8 AUX2_MID_MODEL
-int8 AUX2_HIG_MODEL
-int8 AUX3_LOW_MODEL
-int8 AUX3_MID_MODEL
-int8 AUX3_HIG_MODEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -507,14 +404,6 @@
   </si>
   <si>
     <t>SUM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint8  HardwareType硬件种类
-uint16 HardwareVER*100硬件版本
-uint16 SoftwareVER*100软件版本
-uint16 ProtocolVER*100协议版本
-uint16 BootloaderVER*100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -642,22 +531,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_DATA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -678,38 +551,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>YES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>F6</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>F9</t>
-  </si>
-  <si>
-    <t>FA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>*10000000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -751,15 +592,6 @@
   </si>
   <si>
     <t>匿名平衡车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int16 ROL*100
-int16 PIT*100
-int16 YAW*100
-int32 ALT_USE(高度cm)
-uint8 FLY_MODEL(飞行模式）
-u8 ARMED : 0加锁 1解锁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -775,98 +607,77 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>LNG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回航角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正负180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匿名数传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匿名遥控2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无线定位模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞行控制数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通信协议协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>▲SUM等于从该数据帧第一字节开始，也就是帧头开始，至该帧数据的最后一字节所有字节的和，只保留低八位，高位舍去。
 ▲协议中长度字节LEN表示该数据帧内包含数据的字节总长度，不包括帧头、功能字、长度字节和最后的校验位，只是数据的字节长度和。比如该帧数据内容为3个int16型数据，那么LEN等于6
-▲返回校验是YES的，飞控在收到该帧数据后，需要立即返回CHECK数据帧，也就是AAAAEF数据帧。
-▲若使用HID方式进行通信，推荐数据包长度64字节，每个数据包第一字节表示本包数据有效数据的长度，从1到63.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>协议版本：V4.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LNG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LAT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回航角</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正负180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int16 SPEED_ROL
-int16 SPEED_PIT
-int16 SPEED_Z（单位cm）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>匿名数传</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>匿名遥控2.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MSG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint8_t MSG_ID
-uint8_t MSG_DATA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无线定位模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">PID数据帧1到6
-共有18组PID，每3组PID组成一个PID数据帧，所以共6个PID数据帧
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MSG_ID:
-01:加速度
-02:陀螺仪
-03:罗盘
-30:无线定位模块
-40:匿名数传
-MSG_DATA:
-01:校准成功
-E1:校准失败
-31:设置成功
-32:设置成功2
-A1:恢复默认成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>命令集合2
-01：读取PID请求（返回AAAA 10\11\12\13\14\15数据帧）
-02：读取飞行模式设置请求（返回AAAA 0A数据帧）
-A0：读取下位机版本信息（返回AAAA 00数据帧）
-A1：恢复默认参数</t>
+▲返回校验是YES的，飞控在收到该帧数据后，需要立即返回CHECK数据帧，也就是AAAAEF数据帧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+uint8 HardwareVER*100硬件版本
+uint8 SoftwareVER*100软件版本
+uint8 ProtocolVER*100协议版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int16 THR
+int16 YAW
+int16 ROL
+int16 PIT
+int16 AUX1
+int16 AUX2
+int16 AUX3
+int16 AUX4
+int16 AUX5
+int16 AUX6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PID数据帧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -874,20 +685,24 @@
 01：ACC校准
 02：GYRO校准
 04：MAG校准
-05：BARO校准
-20：退出6面校准
-21：6面校准第1步
-22：6面校准第2步
-23：6面校准第3步
-24：6面校准第4步
-25：6面校准第5步
-26：6面校准第6步
 A0：飞控锁定（仅用于手机蓝牙控制）
 A1：飞控解锁（仅用于手机蓝牙控制）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>飞行控制数据</t>
+    <t>命令集合2
+01：读取PID请求
+A0：读取下位机版本信息
+A1：恢复默认参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int16 ROL*100
+int16 PIT*100
+int16 YAW*100
+int32 ALT_USE(高度cm)
+uint8 FLY_MODEL(飞行模式）
+u8 ARMED : 0加锁 1解锁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -936,7 +751,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -991,12 +806,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="24">
     <border>
@@ -1307,7 +1116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1344,7 +1153,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1376,9 +1184,6 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1393,36 +1198,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1846,8 +1621,8 @@
   </sheetPr>
   <dimension ref="A2:Q90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1859,7 +1634,7 @@
     <col min="5" max="5" width="9" style="2"/>
     <col min="6" max="6" width="34.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.125" style="35" customWidth="1"/>
+    <col min="8" max="8" width="20.125" style="33" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="11.5" style="10" customWidth="1"/>
     <col min="12" max="12" width="9" style="13"/>
@@ -1869,154 +1644,154 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="67" t="s">
-        <v>174</v>
-      </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
+      <c r="B2" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
     </row>
     <row r="3" spans="2:17" ht="68.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="53" t="s">
-        <v>173</v>
-      </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
+      <c r="B3" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
     </row>
     <row r="4" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="57"/>
-      <c r="J4" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="63"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="45"/>
+      <c r="J4" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="51"/>
     </row>
     <row r="5" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="58"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="60"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="66"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="48"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="54"/>
     </row>
     <row r="6" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="27" t="s">
+      <c r="D6" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="29" t="s">
+      <c r="H6" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="27" t="s">
+      <c r="K6" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="L6" s="31" t="s">
+      <c r="L6" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="27" t="s">
+      <c r="M6" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="N6" s="27" t="s">
+      <c r="N6" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="27" t="s">
+      <c r="O6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="P6" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q6" s="30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" s="2" customFormat="1" ht="229.5" x14ac:dyDescent="0.15">
+      <c r="P6" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q6" s="29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" s="2" customFormat="1" ht="108" x14ac:dyDescent="0.15">
       <c r="B7" s="5" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>137</v>
+        <v>89</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>117</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>15</v>
@@ -2028,19 +1803,19 @@
         <v>1</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q7" s="28" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" ht="108" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="27" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="81" x14ac:dyDescent="0.15">
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
@@ -2054,16 +1829,16 @@
         <v>19</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="34" t="s">
-        <v>85</v>
+      <c r="H8" s="32" t="s">
+        <v>70</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>15</v>
@@ -2075,16 +1850,16 @@
         <v>1</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q8" s="28" t="s">
-        <v>190</v>
+        <v>30</v>
+      </c>
+      <c r="Q8" s="27" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="2:17" ht="135" x14ac:dyDescent="0.15">
@@ -2101,13 +1876,13 @@
         <v>18</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="34" t="s">
-        <v>86</v>
+      <c r="H9" s="32" t="s">
+        <v>71</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>10</v>
@@ -2116,7 +1891,7 @@
         <v>15</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M9" s="3">
         <v>20</v>
@@ -2128,10 +1903,10 @@
         <v>7</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q9" s="34" t="s">
-        <v>192</v>
+        <v>31</v>
+      </c>
+      <c r="Q9" s="32" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="2:17" ht="135" x14ac:dyDescent="0.15">
@@ -2142,67 +1917,67 @@
         <v>13</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E10" s="3">
         <v>20</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="J10" s="32" t="s">
-        <v>84</v>
+      <c r="H10" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>103</v>
+        <v>23</v>
+      </c>
+      <c r="M10" s="3">
+        <v>18</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q10" s="34" t="s">
-        <v>63</v>
+        <v>30</v>
+      </c>
+      <c r="Q10" s="56" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="2:17" ht="121.5" x14ac:dyDescent="0.15">
       <c r="B11" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>13</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C11" s="6"/>
       <c r="D11" s="12" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="34"/>
+        <v>77</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>78</v>
+      </c>
       <c r="J11" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>15</v>
@@ -2213,41 +1988,41 @@
       <c r="M11" s="3">
         <v>18</v>
       </c>
-      <c r="N11" s="4" t="s">
-        <v>80</v>
+      <c r="N11" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="O11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q11" s="68" t="s">
-        <v>188</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="Q11" s="57"/>
     </row>
     <row r="12" spans="2:17" ht="121.5" x14ac:dyDescent="0.15">
       <c r="B12" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="D12" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>91</v>
+        <v>23</v>
+      </c>
+      <c r="E12" s="3">
+        <v>18</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="H12" s="34" t="s">
-        <v>93</v>
+        <v>7</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>79</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>15</v>
@@ -2259,991 +2034,379 @@
         <v>18</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q12" s="69"/>
+        <v>29</v>
+      </c>
+      <c r="Q12" s="57"/>
     </row>
     <row r="13" spans="2:17" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="B13" s="32" t="s">
-        <v>84</v>
+      <c r="B13" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="E13" s="3">
+        <v>18</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="J13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="57"/>
+    </row>
+    <row r="14" spans="2:17" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="B14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="M13" s="3">
-        <v>18</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q13" s="69"/>
-    </row>
-    <row r="14" spans="2:17" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="B14" s="5"/>
       <c r="C14" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>179</v>
+        <v>25</v>
+      </c>
+      <c r="E14" s="3">
+        <v>18</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="34"/>
-      <c r="J14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M14" s="3">
-        <v>18</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q14" s="69"/>
-    </row>
-    <row r="15" spans="2:17" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="H14" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="57"/>
+    </row>
+    <row r="15" spans="2:17" ht="81" x14ac:dyDescent="0.15">
       <c r="B15" s="5" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="E15" s="3">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M15" s="3">
-        <v>18</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q15" s="69"/>
-    </row>
-    <row r="16" spans="2:17" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="B16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="3">
-        <v>18</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="M16" s="3">
-        <v>18</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q16" s="70"/>
-    </row>
-    <row r="17" spans="2:17" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="B17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="3">
-        <v>18</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="34"/>
-    </row>
-    <row r="18" spans="2:17" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="B18" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="3">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="34"/>
-    </row>
-    <row r="19" spans="2:17" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="B19" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="3">
-        <v>18</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H19" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="34"/>
-    </row>
-    <row r="20" spans="2:17" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="B20" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="3">
-        <v>18</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="34"/>
+      <c r="H15" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="58"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="10"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="10"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="10"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B21" s="5"/>
-      <c r="C21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" s="34"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="34"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H22" s="34"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="34"/>
-    </row>
-    <row r="23" spans="2:17" ht="175.5" x14ac:dyDescent="0.15">
-      <c r="B23" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="E23" s="3">
-        <v>7</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H23" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="J23" s="32"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="34"/>
-    </row>
-    <row r="24" spans="2:17" ht="81" x14ac:dyDescent="0.15">
-      <c r="B24" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="E24" s="3">
-        <v>7</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H24" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="J24" s="32"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="34"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="10"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B25" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="C25" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="43" t="s">
-        <v>141</v>
-      </c>
-      <c r="E25" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="G25" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="H25" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="J25" s="32"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="34"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="10"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B26" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="C26" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="E26" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="G26" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="H26" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="J26" s="32"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="34"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="10"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B27" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="C27" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="E27" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="G27" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="J27" s="32"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="34"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="10"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B28" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="C28" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="E28" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="G28" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="H28" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="J28" s="32"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="34"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="10"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B29" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="C29" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="E29" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="G29" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="H29" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="J29" s="32"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="34"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="10"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B30" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="C30" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="E30" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="G30" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="H30" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="J30" s="32"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="34"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="10"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B31" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="C31" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E31" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="G31" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="H31" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="J31" s="32"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="34"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="10"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B32" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="C32" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="E32" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="G32" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="H32" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="J32" s="32"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="34"/>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B33" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="C33" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="E33" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="G33" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="H33" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="J33" s="32"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="34"/>
-    </row>
-    <row r="34" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="C34" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="48" t="s">
-        <v>159</v>
-      </c>
-      <c r="E34" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="F34" s="49" t="s">
-        <v>144</v>
-      </c>
-      <c r="G34" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="H34" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="J34" s="32"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="34"/>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="K35" s="10"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="10"/>
+    </row>
+    <row r="33" spans="9:17" x14ac:dyDescent="0.15">
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="10"/>
+    </row>
+    <row r="34" spans="9:17" x14ac:dyDescent="0.15">
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="10"/>
+    </row>
+    <row r="35" spans="9:17" x14ac:dyDescent="0.15">
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
       <c r="L35" s="14"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
       <c r="Q35" s="10"/>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="36" spans="9:17" x14ac:dyDescent="0.15">
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
-      <c r="L36" s="15"/>
+      <c r="L36" s="14"/>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
       <c r="Q36" s="10"/>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="10"/>
-    </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="10"/>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="10"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="10"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="10"/>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="15"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="9"/>
-      <c r="P47" s="9"/>
-      <c r="Q47" s="10"/>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="15"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
-      <c r="P48" s="9"/>
-      <c r="Q48" s="10"/>
+    <row r="48" spans="9:17" x14ac:dyDescent="0.15">
+      <c r="I48" s="10"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="15"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="9"/>
-      <c r="O49" s="9"/>
-      <c r="P49" s="9"/>
-      <c r="Q49" s="10"/>
+      <c r="I49" s="10"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="15"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="9"/>
-      <c r="P50" s="9"/>
-      <c r="Q50" s="10"/>
+      <c r="I50" s="10"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="15"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="9"/>
-      <c r="P51" s="9"/>
-      <c r="Q51" s="10"/>
+      <c r="I51" s="10"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="15"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
-      <c r="O52" s="9"/>
-      <c r="P52" s="9"/>
-      <c r="Q52" s="10"/>
+      <c r="I52" s="10"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="15"/>
-      <c r="M53" s="9"/>
-      <c r="N53" s="9"/>
-      <c r="O53" s="9"/>
-      <c r="P53" s="9"/>
-      <c r="Q53" s="10"/>
+      <c r="I53" s="10"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="15"/>
-      <c r="M54" s="9"/>
-      <c r="N54" s="9"/>
-      <c r="O54" s="9"/>
-      <c r="P54" s="9"/>
-      <c r="Q54" s="10"/>
+      <c r="I54" s="10"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
-      <c r="L55" s="15"/>
-      <c r="M55" s="9"/>
-      <c r="N55" s="9"/>
-      <c r="O55" s="9"/>
-      <c r="P55" s="9"/>
-      <c r="Q55" s="10"/>
+      <c r="I55" s="10"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
-      <c r="L56" s="15"/>
-      <c r="M56" s="9"/>
-      <c r="N56" s="9"/>
-      <c r="O56" s="9"/>
-      <c r="P56" s="9"/>
+      <c r="I56" s="10"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A57" s="10"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
-      <c r="L57" s="15"/>
-      <c r="M57" s="9"/>
-      <c r="N57" s="9"/>
-      <c r="O57" s="9"/>
-      <c r="P57" s="9"/>
+      <c r="I57" s="10"/>
     </row>
     <row r="58" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B58" s="2"/>
@@ -3252,14 +2415,13 @@
       <c r="E58" s="2"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
-      <c r="H58" s="35"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
-      <c r="L58" s="15"/>
-      <c r="M58" s="9"/>
-      <c r="N58" s="9"/>
-      <c r="O58" s="9"/>
-      <c r="P58" s="9"/>
+      <c r="H58" s="33"/>
+      <c r="K58"/>
+      <c r="L58" s="13"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
       <c r="Q58"/>
     </row>
     <row r="59" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -3269,7 +2431,7 @@
       <c r="E59" s="2"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
-      <c r="H59" s="35"/>
+      <c r="H59" s="33"/>
       <c r="K59"/>
       <c r="L59" s="13"/>
       <c r="M59"/>
@@ -3285,7 +2447,7 @@
       <c r="E60" s="2"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
-      <c r="H60" s="35"/>
+      <c r="H60" s="33"/>
       <c r="K60"/>
       <c r="L60" s="13"/>
       <c r="M60"/>
@@ -3301,7 +2463,7 @@
       <c r="E61" s="2"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
-      <c r="H61" s="35"/>
+      <c r="H61" s="33"/>
       <c r="K61"/>
       <c r="L61" s="13"/>
       <c r="M61"/>
@@ -3317,7 +2479,7 @@
       <c r="E62" s="2"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
-      <c r="H62" s="35"/>
+      <c r="H62" s="33"/>
       <c r="K62"/>
       <c r="L62" s="13"/>
       <c r="M62"/>
@@ -3333,7 +2495,7 @@
       <c r="E63" s="2"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
-      <c r="H63" s="35"/>
+      <c r="H63" s="33"/>
       <c r="K63"/>
       <c r="L63" s="13"/>
       <c r="M63"/>
@@ -3349,7 +2511,7 @@
       <c r="E64" s="2"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
-      <c r="H64" s="35"/>
+      <c r="H64" s="33"/>
       <c r="K64"/>
       <c r="L64" s="13"/>
       <c r="M64"/>
@@ -3365,7 +2527,7 @@
       <c r="E65" s="2"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
-      <c r="H65" s="35"/>
+      <c r="H65" s="33"/>
       <c r="K65"/>
       <c r="L65" s="13"/>
       <c r="M65"/>
@@ -3381,7 +2543,7 @@
       <c r="E66" s="2"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
-      <c r="H66" s="35"/>
+      <c r="H66" s="33"/>
       <c r="K66"/>
       <c r="L66" s="13"/>
       <c r="M66"/>
@@ -3397,7 +2559,7 @@
       <c r="E67" s="2"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
-      <c r="H67" s="35"/>
+      <c r="H67" s="33"/>
       <c r="K67"/>
       <c r="L67" s="13"/>
       <c r="M67"/>
@@ -3413,7 +2575,7 @@
       <c r="E68" s="2"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
-      <c r="H68" s="35"/>
+      <c r="H68" s="33"/>
       <c r="K68"/>
       <c r="L68" s="13"/>
       <c r="M68"/>
@@ -3429,7 +2591,7 @@
       <c r="E69" s="2"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
-      <c r="H69" s="35"/>
+      <c r="H69" s="33"/>
       <c r="K69"/>
       <c r="L69" s="13"/>
       <c r="M69"/>
@@ -3445,7 +2607,7 @@
       <c r="E70" s="2"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
-      <c r="H70" s="35"/>
+      <c r="H70" s="33"/>
       <c r="K70"/>
       <c r="L70" s="13"/>
       <c r="M70"/>
@@ -3461,7 +2623,7 @@
       <c r="E71" s="2"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
-      <c r="H71" s="35"/>
+      <c r="H71" s="33"/>
       <c r="K71"/>
       <c r="L71" s="13"/>
       <c r="M71"/>
@@ -3477,7 +2639,7 @@
       <c r="E72" s="2"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
-      <c r="H72" s="35"/>
+      <c r="H72" s="33"/>
       <c r="K72"/>
       <c r="L72" s="13"/>
       <c r="M72"/>
@@ -3493,7 +2655,7 @@
       <c r="E73" s="2"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
-      <c r="H73" s="35"/>
+      <c r="H73" s="33"/>
       <c r="K73"/>
       <c r="L73" s="13"/>
       <c r="M73"/>
@@ -3509,7 +2671,7 @@
       <c r="E74" s="2"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
-      <c r="H74" s="35"/>
+      <c r="H74" s="33"/>
       <c r="K74"/>
       <c r="L74" s="13"/>
       <c r="M74"/>
@@ -3525,7 +2687,7 @@
       <c r="E75" s="2"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
-      <c r="H75" s="35"/>
+      <c r="H75" s="33"/>
       <c r="K75"/>
       <c r="L75" s="13"/>
       <c r="M75"/>
@@ -3541,7 +2703,7 @@
       <c r="E76" s="2"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
-      <c r="H76" s="35"/>
+      <c r="H76" s="33"/>
       <c r="K76"/>
       <c r="L76" s="13"/>
       <c r="M76"/>
@@ -3557,7 +2719,7 @@
       <c r="E77" s="2"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
-      <c r="H77" s="35"/>
+      <c r="H77" s="33"/>
       <c r="K77"/>
       <c r="L77" s="13"/>
       <c r="M77"/>
@@ -3573,7 +2735,7 @@
       <c r="E78" s="2"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
-      <c r="H78" s="35"/>
+      <c r="H78" s="33"/>
       <c r="K78"/>
       <c r="L78" s="13"/>
       <c r="M78"/>
@@ -3589,7 +2751,7 @@
       <c r="E79" s="2"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
-      <c r="H79" s="35"/>
+      <c r="H79" s="33"/>
       <c r="K79"/>
       <c r="L79" s="13"/>
       <c r="M79"/>
@@ -3605,7 +2767,7 @@
       <c r="E80" s="2"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
-      <c r="H80" s="35"/>
+      <c r="H80" s="33"/>
       <c r="K80"/>
       <c r="L80" s="13"/>
       <c r="M80"/>
@@ -3621,7 +2783,8 @@
       <c r="E81" s="2"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
-      <c r="H81" s="35"/>
+      <c r="H81" s="33"/>
+      <c r="I81"/>
       <c r="K81"/>
       <c r="L81" s="13"/>
       <c r="M81"/>
@@ -3637,7 +2800,8 @@
       <c r="E82" s="2"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
-      <c r="H82" s="35"/>
+      <c r="H82" s="33"/>
+      <c r="I82"/>
       <c r="K82"/>
       <c r="L82" s="13"/>
       <c r="M82"/>
@@ -3653,7 +2817,8 @@
       <c r="E83" s="2"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
-      <c r="H83" s="35"/>
+      <c r="H83" s="33"/>
+      <c r="I83"/>
       <c r="K83"/>
       <c r="L83" s="13"/>
       <c r="M83"/>
@@ -3669,7 +2834,8 @@
       <c r="E84" s="2"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
-      <c r="H84" s="35"/>
+      <c r="H84" s="33"/>
+      <c r="I84"/>
       <c r="K84"/>
       <c r="L84" s="13"/>
       <c r="M84"/>
@@ -3685,7 +2851,8 @@
       <c r="E85" s="2"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
-      <c r="H85" s="35"/>
+      <c r="H85" s="33"/>
+      <c r="I85"/>
       <c r="K85"/>
       <c r="L85" s="13"/>
       <c r="M85"/>
@@ -3701,7 +2868,8 @@
       <c r="E86" s="2"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
-      <c r="H86" s="35"/>
+      <c r="H86" s="33"/>
+      <c r="I86"/>
       <c r="K86"/>
       <c r="L86" s="13"/>
       <c r="M86"/>
@@ -3717,7 +2885,8 @@
       <c r="E87" s="2"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
-      <c r="H87" s="35"/>
+      <c r="H87" s="33"/>
+      <c r="I87"/>
       <c r="K87"/>
       <c r="L87" s="13"/>
       <c r="M87"/>
@@ -3733,7 +2902,8 @@
       <c r="E88" s="2"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
-      <c r="H88" s="35"/>
+      <c r="H88" s="33"/>
+      <c r="I88"/>
       <c r="K88"/>
       <c r="L88" s="13"/>
       <c r="M88"/>
@@ -3749,7 +2919,8 @@
       <c r="E89" s="2"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
-      <c r="H89" s="35"/>
+      <c r="H89" s="33"/>
+      <c r="I89"/>
       <c r="K89"/>
       <c r="L89" s="13"/>
       <c r="M89"/>
@@ -3766,7 +2937,8 @@
       <c r="E90" s="2"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
-      <c r="H90" s="35"/>
+      <c r="H90" s="33"/>
+      <c r="I90"/>
       <c r="K90"/>
       <c r="L90" s="13"/>
       <c r="M90"/>
@@ -3781,7 +2953,7 @@
     <mergeCell ref="B4:H5"/>
     <mergeCell ref="J4:Q5"/>
     <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="Q11:Q16"/>
+    <mergeCell ref="Q10:Q15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3808,586 +2980,586 @@
   <sheetData>
     <row r="1" spans="3:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C2" s="76" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="78"/>
+      <c r="C2" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="66"/>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C3" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="39" t="s">
+      <c r="C3" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C4" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="15">
+        <v>1</v>
+      </c>
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C5" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="15">
+        <v>1</v>
+      </c>
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C6" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="40" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C4" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="F4" s="16">
-        <v>1</v>
-      </c>
-      <c r="G4" s="18"/>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C5" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="F5" s="16">
-        <v>1</v>
-      </c>
-      <c r="G5" s="18"/>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C6" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <v>4</v>
       </c>
-      <c r="G6" s="18" t="s">
-        <v>160</v>
+      <c r="G6" s="17" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="15">
+        <v>4</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C8" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="15">
+        <v>2</v>
+      </c>
+      <c r="G8" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="16">
-        <v>4</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C8" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="16">
-        <v>2</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="9" spans="3:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="12" spans="3:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C13" s="73" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="75"/>
+      <c r="C13" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="63"/>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C14" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="39" t="s">
+      <c r="C14" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C15" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="39" t="s">
+      <c r="F15" s="15">
+        <v>2</v>
+      </c>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C16" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="15">
+        <v>4</v>
+      </c>
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C17" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="15">
+        <v>4</v>
+      </c>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C18" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="40" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C15" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="16">
+      <c r="F18" s="15">
+        <v>4</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C19" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="15">
+        <v>1</v>
+      </c>
+      <c r="G19" s="17"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C20" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="15">
+        <v>1</v>
+      </c>
+      <c r="G20" s="17"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C21" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="15">
+        <v>1</v>
+      </c>
+      <c r="G21" s="17"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C22" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="15">
+        <v>1</v>
+      </c>
+      <c r="G22" s="17"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C23" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="15">
+        <v>1</v>
+      </c>
+      <c r="G23" s="17"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C24" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="15">
         <v>2</v>
       </c>
-      <c r="G15" s="18"/>
-    </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C16" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="F16" s="16">
-        <v>4</v>
-      </c>
-      <c r="G16" s="18"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C17" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="F17" s="16">
-        <v>4</v>
-      </c>
-      <c r="G17" s="18"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C18" s="17" t="s">
+      <c r="G24" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="16">
-        <v>4</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C19" s="17" t="s">
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C25" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="21"/>
+      <c r="E25" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" s="15">
+        <v>2</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C26" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="F19" s="16">
-        <v>1</v>
-      </c>
-      <c r="G19" s="18"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C20" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="16">
-        <v>1</v>
-      </c>
-      <c r="G20" s="18"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C21" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="F21" s="16">
-        <v>1</v>
-      </c>
-      <c r="G21" s="18"/>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C22" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="F22" s="16">
-        <v>1</v>
-      </c>
-      <c r="G22" s="18"/>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C23" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="F23" s="16">
-        <v>1</v>
-      </c>
-      <c r="G23" s="18"/>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C24" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="16">
+      <c r="E26" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="15">
         <v>2</v>
       </c>
-      <c r="G24" s="18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C25" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="F25" s="16">
-        <v>2</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C26" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" s="16">
-        <v>2</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>52</v>
+      <c r="G26" s="17" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="19"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20">
+      <c r="C27" s="18"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19">
         <f>SUM(F15:F26)</f>
         <v>25</v>
       </c>
-      <c r="G27" s="21"/>
+      <c r="G27" s="20"/>
     </row>
     <row r="28" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="36"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
     </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C29" s="76" t="s">
-        <v>149</v>
-      </c>
-      <c r="D29" s="77"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="78"/>
+      <c r="C29" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="66"/>
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C30" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="D30" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="F30" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="G30" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="H30" s="40" t="s">
-        <v>136</v>
+      <c r="C30" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="G30" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="H30" s="38" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C31" s="17"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="18"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="17"/>
     </row>
     <row r="32" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C32" s="17"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="18"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="17"/>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C33" s="17"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="18"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="17"/>
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C34" s="17"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="18"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="17"/>
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C35" s="17"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="18"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="17"/>
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C36" s="17"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="18"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="17"/>
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C37" s="17"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="18"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="17"/>
     </row>
     <row r="38" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="19"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="21"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="20"/>
     </row>
     <row r="39" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="40" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C40" s="73" t="s">
+      <c r="C40" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="62"/>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C41" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="74"/>
-    </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C41" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="D41" s="24" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="42" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C43" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C44" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C45" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C46" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C47" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="24" t="s">
         <v>64</v>
-      </c>
-      <c r="D42" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C43" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D43" s="24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C44" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D44" s="24" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C45" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D45" s="24" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C46" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D46" s="24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="47" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C47" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D47" s="25" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="50" spans="3:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="51" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C51" s="76" t="s">
-        <v>110</v>
-      </c>
-      <c r="D51" s="78"/>
+      <c r="C51" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" s="66"/>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C52" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="D52" s="24" t="s">
-        <v>74</v>
+      <c r="C52" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D52" s="23" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C53" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="D53" s="24" t="s">
-        <v>111</v>
+      <c r="C53" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D53" s="23" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C54" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="D54" s="24" t="s">
-        <v>112</v>
+      <c r="C54" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C55" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="D55" s="24" t="s">
-        <v>113</v>
+      <c r="C55" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C56" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="D56" s="24" t="s">
+      <c r="C56" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D56" s="23" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="57" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C57" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="D57" s="24" t="s">
-        <v>32</v>
+      <c r="C57" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D57" s="23" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="58" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C58" s="51" t="s">
-        <v>181</v>
-      </c>
-      <c r="D58" s="52" t="s">
-        <v>180</v>
+      <c r="C58" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="D58" s="40" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C59" s="51" t="s">
-        <v>182</v>
-      </c>
-      <c r="D59" s="52" t="s">
-        <v>115</v>
+      <c r="C59" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="D59" s="40" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="60" spans="3:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C60" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="D60" s="25" t="s">
-        <v>186</v>
+      <c r="C60" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="D60" s="24" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="63" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C63" s="71" t="s">
-        <v>161</v>
-      </c>
-      <c r="D63" s="71"/>
+      <c r="C63" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="D63" s="59"/>
     </row>
     <row r="64" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C64" s="71" t="s">
-        <v>163</v>
-      </c>
-      <c r="D64" s="71"/>
+      <c r="C64" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="D64" s="59"/>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C65" s="72" t="s">
-        <v>164</v>
-      </c>
-      <c r="D65" s="72"/>
+      <c r="C65" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="D65" s="60"/>
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C66" s="72" t="s">
-        <v>165</v>
-      </c>
-      <c r="D66" s="72"/>
+      <c r="C66" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="D66" s="60"/>
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C67" s="13"/>
